--- a/01-beginner/070-hands-on-03.xlsx
+++ b/01-beginner/070-hands-on-03.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="start with this" sheetId="3" r:id="rId1"/>
+    <sheet name="live" sheetId="2" r:id="rId2"/>
+    <sheet name="make it look like this" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -71,6 +73,1468 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9F4B32-B697-40B1-8C5A-24659BF5A1C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="928688" y="2033587"/>
+          <a:ext cx="990600" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>245250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449322</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>122948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FCDC6B-21E5-4617-ADCE-E33199387851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2836050" y="909638"/>
+          <a:ext cx="851772" cy="1204035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361912</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>36475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DE2937-348D-4E71-AA7D-7DE7BD10BF90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895812" y="2325892"/>
+          <a:ext cx="723938" cy="1149108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F8CF0DC-8822-4349-85E6-9D0764B244A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6003075" y="1039014"/>
+          <a:ext cx="1283550" cy="563510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>519038</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623156</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CBC8BD9-8FB2-4FEB-A87E-1D055ED66BFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7643738" y="2647950"/>
+          <a:ext cx="751818" cy="1133780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>473775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500399</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>163640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761306C4-DDA6-4BDB-9E09-05FFD89EA96A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9541575" y="614364"/>
+          <a:ext cx="1322024" cy="997076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190388</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>84839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9754E41E-9B19-4C6B-A3BD-977CC62B7EBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15087488" y="1351664"/>
+          <a:ext cx="1457438" cy="1079384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>97502</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>150346</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>154650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C983C406-B863-452E-80D0-6ABBE1ED6405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11756102" y="1595438"/>
+          <a:ext cx="700544" cy="911887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016773F1-E66E-4738-BAE2-D416C78E2B10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId18"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096725" y="3313802"/>
+          <a:ext cx="1414613" cy="606263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447667</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>84051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>519105</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21261</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Group 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C51A92D-4BDF-493F-8765-54F678C29BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="20535038">
+          <a:off x="1095367" y="3341601"/>
+          <a:ext cx="15616238" cy="1204035"/>
+          <a:chOff x="928688" y="1665197"/>
+          <a:chExt cx="15616238" cy="1204035"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC761DFB-8F55-488C-AC0C-37331D5FC993}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="928688" y="1771914"/>
+            <a:ext cx="990600" cy="990600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51871E8-DF96-45D4-905E-2CA3D5200E0C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2684281" y="1665197"/>
+            <a:ext cx="851772" cy="1204035"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DD7D6D-40FB-4077-9F75-39D556880B2A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4301046" y="1692660"/>
+            <a:ext cx="723938" cy="1149108"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE750F1-DE1C-422A-AFF9-924AD88117CC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId8"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5789977" y="1985459"/>
+            <a:ext cx="1283550" cy="563510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4251BFFC-20EB-4C44-807D-433CFE481B51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId10"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7838520" y="1700324"/>
+            <a:ext cx="751818" cy="1133780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Picture 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4549C0FD-8B5C-4B86-A50B-F16640ADB4BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId12"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9355331" y="1768676"/>
+            <a:ext cx="1322024" cy="997076"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="Picture 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568C7E0B-5C61-44D5-9881-E9843ECD1494}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId14"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15087488" y="1727522"/>
+            <a:ext cx="1457438" cy="1079384"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Picture 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E77D7C-0C11-447F-B762-2836B1D9B7D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId16"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11442348" y="1811271"/>
+            <a:ext cx="700544" cy="911887"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="Picture 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E571B9A6-FDEE-45DE-8DFE-1A1C69189800}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId18"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12907885" y="1964083"/>
+            <a:ext cx="1414613" cy="606263"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>164132</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3EA9DA-63BC-4EB7-B240-097623389193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="20516948">
+          <a:off x="1095375" y="3303497"/>
+          <a:ext cx="15616238" cy="1204035"/>
+          <a:chOff x="928688" y="1665197"/>
+          <a:chExt cx="15616238" cy="1204035"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC119C06-FA71-4550-BEC6-F936E599540F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="928688" y="1771914"/>
+            <a:ext cx="990600" cy="990600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B3116F-11B4-4A79-8912-E2A3BC38902A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2684281" y="1665197"/>
+            <a:ext cx="851772" cy="1204035"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Picture 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0808D980-5CE6-47C3-A3A4-53652472E820}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4301046" y="1692660"/>
+            <a:ext cx="723938" cy="1149108"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Picture 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B291B31-B9E0-42E2-B6ED-75A9B1FB996D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId8"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5789977" y="1985459"/>
+            <a:ext cx="1283550" cy="563510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="Picture 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EFEC77-519A-44BA-9467-426CA1ECA25C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId10"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7838520" y="1700324"/>
+            <a:ext cx="751818" cy="1133780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="Picture 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969BB3EE-67ED-4BDC-A6EF-F26644F6A5F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId12"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9355331" y="1768676"/>
+            <a:ext cx="1322024" cy="997076"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="Picture 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B5CCEF9-61D1-4AC9-AC9C-8063EA21AF10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId14"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15087488" y="1727522"/>
+            <a:ext cx="1457438" cy="1079384"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="Picture 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D76DFDC-D241-462D-8A00-86194E34A5B7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId16"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11442348" y="1811271"/>
+            <a:ext cx="700544" cy="911887"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="Picture 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5323453F-CCDD-4076-9454-B7434F0493D0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="hqprint">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+              </a:ext>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId18"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12907885" y="1964083"/>
+            <a:ext cx="1414613" cy="606263"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="333333">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,13 +1834,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>